--- a/biology/Médecine/Delafloxacine/Delafloxacine.xlsx
+++ b/biology/Médecine/Delafloxacine/Delafloxacine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La delafloxacine est un antibiotique de la classe des quinolones. Il est vendu, entre autres, sous la marque Baxdela[1].
+La delafloxacine est un antibiotique de la classe des quinolones. Il est vendu, entre autres, sous la marque Baxdela.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La delafloxacine est un antibiotique utilisé pour traiter les infections bactériennes de la peau et des structures cutanées [1]. Il est généralement efficace contre le staphylococcus aureus résistant à la méticilline et le Pseudomonas[2]. Le médicament peut être administré par voie orale ou par injection intraveineuse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La delafloxacine est un antibiotique utilisé pour traiter les infections bactériennes de la peau et des structures cutanées . Il est généralement efficace contre le staphylococcus aureus résistant à la méticilline et le Pseudomonas. Le médicament peut être administré par voie orale ou par injection intraveineuse.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent la diarrhée ou les nausées[1]. D'autres effets secondaires peuvent inclure une tendinite, une neuropathie périphérique, une psychose, une infection à Clostridioides difficile ou une anaphylaxie [2]. La sécurité pendant la grossesse n'est pas claire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent la diarrhée ou les nausées. D'autres effets secondaires peuvent inclure une tendinite, une neuropathie périphérique, une psychose, une infection à Clostridioides difficile ou une anaphylaxie . La sécurité pendant la grossesse n'est pas claire.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament  a été approuvée pour un usage médical aux États-Unis en 2017 et en Europe en 2019[2],[1]. Au Royaume-Uni, cinq jours de traitement coûtent au NHS environ 615 livres sterling à partir de 2021[3]. Ce montant aux États-Unis est d'environ 760 dollars américains [4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament  a été approuvée pour un usage médical aux États-Unis en 2017 et en Europe en 2019,. Au Royaume-Uni, cinq jours de traitement coûtent au NHS environ 615 livres sterling à partir de 2021. Ce montant aux États-Unis est d'environ 760 dollars américains .
 </t>
         </is>
       </c>
